--- a/forwardprimer-v3_35.xlsx
+++ b/forwardprimer-v3_35.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="60" windowWidth="19176" windowHeight="15528"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="45096" windowHeight="22872"/>
   </bookViews>
   <sheets>
     <sheet name="forwardprimer-v3_35" sheetId="1" r:id="rId1"/>
@@ -28,865 +28,865 @@
     <t>A1</t>
   </si>
   <si>
-    <t>F3265-AGATGACTTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGATGACTTGTCGTCGGCAGCGTC</t>
+    <t>F3265-GCAGTACAAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGCAGTACAAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A2</t>
   </si>
   <si>
-    <t>F3266-TAGATCTCAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGATCTCAGTCGTCGGCAGCGTC</t>
+    <t>F3266-GCTGAGATCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGCTGAGATCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A3</t>
   </si>
   <si>
-    <t>F3267-TCATCACAGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCATCACAGCTCGTCGGCAGCGTC</t>
+    <t>F3267-ACTCACACTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTCACACTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A4</t>
   </si>
   <si>
-    <t>F3268-AGAAGTCATG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGAAGTCATGTCGTCGGCAGCGTC</t>
+    <t>F3268-TGCATCCTCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGCATCCTCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A5</t>
   </si>
   <si>
-    <t>F3269-CTCCTACTAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTCCTACTAGTCGTCGGCAGCGTC</t>
+    <t>F3269-AAGGAGCTTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGGAGCTTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A6</t>
   </si>
   <si>
-    <t>F3270-AACTGTCTGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACTGTCTGATCGTCGGCAGCGTC</t>
+    <t>F3270-ACTCCTGTTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTCCTGTTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A7</t>
   </si>
   <si>
-    <t>F3271-TGAGAGCTTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGAGAGCTTCTCGTCGGCAGCGTC</t>
+    <t>F3271-CGAACAAGTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCGAACAAGTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A8</t>
   </si>
   <si>
-    <t>F3272-TAGCAACTAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGCAACTACTCGTCGGCAGCGTC</t>
+    <t>F3272-CCTTCACTCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCCTTCACTCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A9</t>
   </si>
   <si>
-    <t>F3273-GGTTGAAGGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGGTTGAAGGATCGTCGGCAGCGTC</t>
+    <t>F3273-TCGTACTTGG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCGTACTTGGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A10</t>
   </si>
   <si>
-    <t>F3274-GGAGAGAGAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGGAGAGAGAATCGTCGGCAGCGTC</t>
+    <t>F3274-AAGGTGATGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGGTGATGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A11</t>
   </si>
   <si>
-    <t>F3275-TGCAAGGTAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGCAAGGTACTCGTCGGCAGCGTC</t>
+    <t>F3275-CATCTTGGAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCATCTTGGAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A12</t>
   </si>
   <si>
-    <t>F3276-ACATGTGCAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACATGTGCATTCGTCGGCAGCGTC</t>
+    <t>F3276-ACAACTGATC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACAACTGATCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B1</t>
   </si>
   <si>
-    <t>F3277-GACTGTCCAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGACTGTCCAATCGTCGGCAGCGTC</t>
+    <t>F3277-AACTGACCAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACTGACCACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B2</t>
   </si>
   <si>
-    <t>F3278-GTACAGGATG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTACAGGATGTCGTCGGCAGCGTC</t>
+    <t>F3278-GAACCTAGTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAACCTAGTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B3</t>
   </si>
   <si>
-    <t>F3279-ACACTTGCAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACACTTGCAGTCGTCGGCAGCGTC</t>
+    <t>F3279-AGGATCACAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGGATCACAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B4</t>
   </si>
   <si>
-    <t>F3280-GGTTCTTCGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGGTTCTTCGATCGTCGGCAGCGTC</t>
+    <t>F3280-GAAGAGTCTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAAGAGTCTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B5</t>
   </si>
   <si>
-    <t>F3281-CAGTGGTCAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAGTGGTCATTCGTCGGCAGCGTC</t>
+    <t>F3281-TCTGTCACAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCTGTCACAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B6</t>
   </si>
   <si>
-    <t>F3282-AAGCTCACCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGCTCACCTTCGTCGGCAGCGTC</t>
+    <t>F3282-ATGCTCGAGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATGCTCGAGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B7</t>
   </si>
   <si>
-    <t>F3283-CTAGGTGAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTAGGTGAGATCGTCGGCAGCGTC</t>
+    <t>F3283-TCACTGTGTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCACTGTGTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B8</t>
   </si>
   <si>
-    <t>F3284-GATCAGACAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGATCAGACAGTCGTCGGCAGCGTC</t>
+    <t>F3284-CTTGTCAGTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTTGTCAGTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B9</t>
   </si>
   <si>
-    <t>F3285-ACTAGGTGTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTAGGTGTCTCGTCGGCAGCGTC</t>
+    <t>F3285-GAACCTGTTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAACCTGTTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B10</t>
   </si>
   <si>
-    <t>F3286-ACCTCTGATG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACCTCTGATGTCGTCGGCAGCGTC</t>
+    <t>F3286-AGACTGATGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGACTGATGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B11</t>
   </si>
   <si>
-    <t>F3287-ACCTGAACAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACCTGAACAGTCGTCGGCAGCGTC</t>
+    <t>F3287-AGACTTCTGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGACTTCTGCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B12</t>
   </si>
   <si>
-    <t>F3288-AAGATGGATC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGATGGATCTCGTCGGCAGCGTC</t>
+    <t>F3288-TCTAGCTCCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCTAGCTCCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C1</t>
   </si>
   <si>
-    <t>F3289-TAGTCTGACC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGTCTGACCTCGTCGGCAGCGTC</t>
+    <t>F3289-GTGCAACAAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTGCAACAACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C2</t>
   </si>
   <si>
-    <t>F3290-AGTCACCTAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGTCACCTACTCGTCGGCAGCGTC</t>
+    <t>F3290-AGTTCAGCTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTTCAGCTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C3</t>
   </si>
   <si>
-    <t>F3291-TAGACGTAGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGACGTAGTTCGTCGGCAGCGTC</t>
+    <t>F3291-ACACGTACTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACACGTACTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C4</t>
   </si>
   <si>
-    <t>F3292-CAAGGTGAAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAAGGTGAACTCGTCGGCAGCGTC</t>
+    <t>F3292-AAGTTGACTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGTTGACTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C5</t>
   </si>
   <si>
-    <t>F3293-AGAGACAAGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGAGACAAGGTCGTCGGCAGCGTC</t>
+    <t>F3293-AGGACAACCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGGACAACCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C6</t>
   </si>
   <si>
-    <t>F3294-AAGTTGACTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGTTGACTCTCGTCGGCAGCGTC</t>
+    <t>F3294-CAGAAGTAGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAGAAGTAGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C7</t>
   </si>
   <si>
-    <t>F3295-ATCTCTGTCG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATCTCTGTCGTCGTCGGCAGCGTC</t>
+    <t>F3295-CCTACCTAGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCCTACCTAGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C8</t>
   </si>
   <si>
-    <t>F3296-GTGGTACTAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTGGTACTAGTCGTCGGCAGCGTC</t>
+    <t>F3296-TTGATGTGGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTGATGTGGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C9</t>
   </si>
   <si>
-    <t>F3297-TTCCATGGAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTCCATGGAATCGTCGGCAGCGTC</t>
+    <t>F3297-CCACTTGGTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCCACTTGGTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C10</t>
   </si>
   <si>
-    <t>F3298-AGCAAGCAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGCAAGCAGATCGTCGGCAGCGTC</t>
+    <t>F3298-GGTAGCATGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGGTAGCATGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C11</t>
   </si>
   <si>
-    <t>F3299-GCTGATGCAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGCTGATGCAATCGTCGGCAGCGTC</t>
+    <t>F3299-ACTTGTGACG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTTGTGACGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C12</t>
   </si>
   <si>
-    <t>F3300-CGAAGTTCTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCGAAGTTCTCTCGTCGGCAGCGTC</t>
+    <t>F3300-CTCAAGTACT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTCAAGTACTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D1</t>
   </si>
   <si>
-    <t>F3301-TAGACGTCAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGACGTCACTCGTCGGCAGCGTC</t>
+    <t>F3301-AACGAACAGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACGAACAGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D2</t>
   </si>
   <si>
-    <t>F3302-AACCTCTGTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACCTCTGTTTCGTCGGCAGCGTC</t>
+    <t>F3302-AGGAACGTAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGGAACGTAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D3</t>
   </si>
   <si>
-    <t>F3303-GAGAGACGAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAGAGACGATTCGTCGGCAGCGTC</t>
+    <t>F3303-TCTCTCTAGG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCTCTCTAGGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D4</t>
   </si>
   <si>
-    <t>F3304-TACGAAGACC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACGAAGACCTCGTCGGCAGCGTC</t>
+    <t>F3304-GAGTGTCGTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAGTGTCGTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D5</t>
   </si>
   <si>
-    <t>F3305-TTGTCTGTAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTGTCTGTACTCGTCGGCAGCGTC</t>
+    <t>F3305-AACCTTCCTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACCTTCCTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D6</t>
   </si>
   <si>
-    <t>F3306-GTCAGCAACT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTCAGCAACTTCGTCGGCAGCGTC</t>
+    <t>F3306-AGTACTGGAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTACTGGAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D7</t>
   </si>
   <si>
-    <t>F3307-AAGAGTACTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGAGTACTGTCGTCGGCAGCGTC</t>
+    <t>F3307-ATGTGTCATG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATGTGTCATGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D8</t>
   </si>
   <si>
-    <t>F3308-TCATCCAAGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCATCCAAGGTCGTCGGCAGCGTC</t>
+    <t>F3308-GTCAGTGTCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTCAGTGTCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D9</t>
   </si>
   <si>
-    <t>F3309-GATCACTGTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGATCACTGTCTCGTCGGCAGCGTC</t>
+    <t>F3309-ACCTTCACTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACCTTCACTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D10</t>
   </si>
   <si>
-    <t>F3310-TCTACGAGTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCTACGAGTTTCGTCGGCAGCGTC</t>
+    <t>F3310-GTACTCCTTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTACTCCTTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D11</t>
   </si>
   <si>
-    <t>F3311-TCGTACAGGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCGTACAGGTTCGTCGGCAGCGTC</t>
+    <t>F3311-ACTTCTCAGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTTCTCAGCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D12</t>
   </si>
   <si>
-    <t>F3312-AGACATGCTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGACATGCTCTCGTCGGCAGCGTC</t>
+    <t>F3312-ATGAACTCAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATGAACTCAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E1</t>
   </si>
   <si>
-    <t>F3313-TGAAGACTCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGAAGACTCTTCGTCGGCAGCGTC</t>
+    <t>F3313-GATCGACCTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGATCGACCTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E2</t>
   </si>
   <si>
-    <t>F3314-AAGTCGACCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGTCGACCATCGTCGGCAGCGTC</t>
+    <t>F3314-TGCAAGTGTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGCAAGTGTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E3</t>
   </si>
   <si>
-    <t>F3315-GATGTCCTAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGATGTCCTAGTCGTCGGCAGCGTC</t>
+    <t>F3315-TCTCTACTGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCTCTACTGCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E4</t>
   </si>
   <si>
-    <t>F3316-AGTCACAAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGTCACAAGATCGTCGGCAGCGTC</t>
+    <t>F3316-CTCACACCAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTCACACCATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E5</t>
   </si>
   <si>
-    <t>F3317-CTAGTGAGAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTAGTGAGAGTCGTCGGCAGCGTC</t>
+    <t>F3317-GTTGTTGACA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTTGTTGACATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E6</t>
   </si>
   <si>
-    <t>F3318-TGAGGAGTTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGAGGAGTTCTCGTCGGCAGCGTC</t>
+    <t>F3318-CATGGTGGTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCATGGTGGTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E7</t>
   </si>
   <si>
-    <t>F3319-TCACTCACAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCACTCACACTCGTCGGCAGCGTC</t>
+    <t>F3319-AGTAGTCACT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTAGTCACTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E8</t>
   </si>
   <si>
-    <t>F3320-AGAGTCCTGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGAGTCCTGATCGTCGGCAGCGTC</t>
+    <t>F3320-TCCTGACTAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCCTGACTAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E9</t>
   </si>
   <si>
-    <t>F3321-CCACCATCAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCCACCATCAATCGTCGGCAGCGTC</t>
+    <t>F3321-GGACACTGTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGGACACTGTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E10</t>
   </si>
   <si>
-    <t>F3322-AGCTCTTGAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGCTCTTGACTCGTCGGCAGCGTC</t>
+    <t>F3322-AGAAGCACGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGAAGCACGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E11</t>
   </si>
   <si>
-    <t>F3323-TACAAGTGCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACAAGTGCATCGTCGGCAGCGTC</t>
+    <t>F3323-AACTCGAGAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACTCGAGAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E12</t>
   </si>
   <si>
-    <t>F3324-GAGAAGCACA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAGAAGCACATCGTCGGCAGCGTC</t>
+    <t>F3324-CTAGACAGTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTAGACAGTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F1</t>
   </si>
   <si>
-    <t>F3325-TACCTGACTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACCTGACTATCGTCGGCAGCGTC</t>
+    <t>F3325-TTCTACGAAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTCTACGAACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F2</t>
   </si>
   <si>
-    <t>F3326-GCAAGTTGTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGCAAGTTGTGTCGTCGGCAGCGTC</t>
+    <t>F3326-AGACGATCCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGACGATCCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F3</t>
   </si>
   <si>
-    <t>F3327-TGAACATGCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGAACATGCATCGTCGGCAGCGTC</t>
+    <t>F3327-GACTACATCG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGACTACATCGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F4</t>
   </si>
   <si>
-    <t>F3328-GGAGAAGATC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGGAGAAGATCTCGTCGGCAGCGTC</t>
+    <t>F3328-AACCATCTTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACCATCTTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F5</t>
   </si>
   <si>
-    <t>F3329-CAACTCTCAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAACTCTCAGTCGTCGGCAGCGTC</t>
+    <t>F3329-TCAACTACCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCAACTACCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F6</t>
   </si>
   <si>
-    <t>F3330-ACGATGATCG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACGATGATCGTCGTCGGCAGCGTC</t>
+    <t>F3330-CGACTTCAAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCGACTTCAACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F7</t>
   </si>
   <si>
-    <t>F3331-TACTGTGAAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACTGTGAAGTCGTCGGCAGCGTC</t>
+    <t>F3331-TGACAACGAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGACAACGATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F8</t>
   </si>
   <si>
-    <t>F3332-ATGACTGTGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATGACTGTGCTCGTCGGCAGCGTC</t>
+    <t>F3332-CTTGAGGTGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTTGAGGTGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F9</t>
   </si>
   <si>
-    <t>F3333-CTACGTAGGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTACGTAGGTTCGTCGGCAGCGTC</t>
+    <t>F3333-GAAGCAGACA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAAGCAGACATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F10</t>
   </si>
   <si>
-    <t>F3334-GGATCTGAGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGGATCTGAGTTCGTCGGCAGCGTC</t>
+    <t>F3334-TGTGACATCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGTGACATCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F11</t>
   </si>
   <si>
-    <t>F3335-CACACTAGTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCACACTAGTATCGTCGGCAGCGTC</t>
+    <t>F3335-TACTTCCTCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACTTCCTCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F12</t>
   </si>
   <si>
-    <t>F3336-AGCTGTCTAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGCTGTCTAGTCGTCGGCAGCGTC</t>
+    <t>F3336-GACCAGTGTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGACCAGTGTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G1</t>
   </si>
   <si>
-    <t>F3337-AAGCACCTGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGCACCTGTTCGTCGGCAGCGTC</t>
+    <t>F3337-ATCAGATCAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATCAGATCAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G2</t>
   </si>
   <si>
-    <t>F3338-AAGTCTCTGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGTCTCTGTTCGTCGGCAGCGTC</t>
+    <t>F3338-AAGTGAGGAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGTGAGGACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G3</t>
   </si>
   <si>
-    <t>F3339-CAAGTCAACG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAAGTCAACGTCGTCGGCAGCGTC</t>
+    <t>F3339-CTACGTGGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTACGTGGAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G4</t>
   </si>
   <si>
-    <t>F3340-ATGTTGGTCC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATGTTGGTCCTCGTCGGCAGCGTC</t>
+    <t>F3340-AGAACAGCTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGAACAGCTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G5</t>
   </si>
   <si>
-    <t>F3341-CATGAGACCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCATGAGACCTTCGTCGGCAGCGTC</t>
+    <t>F3341-GATGCTACAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGATGCTACACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G6</t>
   </si>
   <si>
-    <t>F3342-AGTACCTAGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGTACCTAGTTCGTCGGCAGCGTC</t>
+    <t>F3342-ATCGATGGAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATCGATGGATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G7</t>
   </si>
   <si>
-    <t>F3343-GCTCAGTGAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGCTCAGTGATTCGTCGGCAGCGTC</t>
+    <t>F3343-TGACGTGATC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGACGTGATCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G8</t>
   </si>
   <si>
-    <t>F3344-CATCGACTAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCATCGACTACTCGTCGGCAGCGTC</t>
+    <t>F3344-CTGCTAGTAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTGCTAGTACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G9</t>
   </si>
   <si>
-    <t>F3345-GATGTCTTGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGATGTCTTGCTCGTCGGCAGCGTC</t>
+    <t>F3345-ACAGTCCAAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACAGTCCAACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G10</t>
   </si>
   <si>
-    <t>F3346-CCTTCACTCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCCTTCACTCATCGTCGGCAGCGTC</t>
+    <t>F3346-AACGTCTCAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACGTCTCAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G11</t>
   </si>
   <si>
-    <t>F3347-GCTAGACACA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGCTAGACACATCGTCGGCAGCGTC</t>
+    <t>F3347-TTCTGCTTCG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTCTGCTTCGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G12</t>
   </si>
   <si>
-    <t>F3348-CTTGGTGCAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTTGGTGCAATCGTCGGCAGCGTC</t>
+    <t>F3348-TACACTCTGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACACTCTGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H1</t>
   </si>
   <si>
-    <t>F3349-TTGGTCTCAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTGGTCTCATTCGTCGGCAGCGTC</t>
+    <t>F3349-GACTGACAAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGACTGACAAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H2</t>
   </si>
   <si>
-    <t>F3350-TCGTGAACGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCGTGAACGATCGTCGGCAGCGTC</t>
+    <t>F3350-GAGTTCGTGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAGTTCGTGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H3</t>
   </si>
   <si>
-    <t>F3351-AGTGTGTGTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGTGTGTGTGTCGTCGGCAGCGTC</t>
+    <t>F3351-GAAGGTCACA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAAGGTCACATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H4</t>
   </si>
   <si>
-    <t>F3352-GACACAAGTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGACACAAGTTTCGTCGGCAGCGTC</t>
+    <t>F3352-AGGTAGCAAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGGTAGCAAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H5</t>
   </si>
   <si>
-    <t>F3353-GAGTCACCAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAGTCACCATTCGTCGGCAGCGTC</t>
+    <t>F3353-GAGTCTCAAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAGTCTCAACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H6</t>
   </si>
   <si>
-    <t>F3354-ATGACCTAGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATGACCTAGGTCGTCGGCAGCGTC</t>
+    <t>F3354-GACAGGAGTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGACAGGAGTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H7</t>
   </si>
   <si>
-    <t>F3355-ATCTCAGACA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATCTCAGACATCGTCGGCAGCGTC</t>
+    <t>F3355-CTTGAAGCTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTTGAAGCTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H8</t>
   </si>
   <si>
-    <t>F3356-GTCATCTACA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTCATCTACATCGTCGGCAGCGTC</t>
+    <t>F3356-AAGCTCCTAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGCTCCTACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H9</t>
   </si>
   <si>
-    <t>F3357-TGAGTCTCAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGAGTCTCAGTCGTCGGCAGCGTC</t>
+    <t>F3357-GTAGAGCTTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTAGAGCTTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H10</t>
   </si>
   <si>
-    <t>F3358-GAACGTCTAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAACGTCTACTCGTCGGCAGCGTC</t>
+    <t>F3358-ACTCTTCTCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTCTTCTCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H11</t>
   </si>
   <si>
-    <t>F3359-AGAAGACAGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGAAGACAGCTCGTCGGCAGCGTC</t>
+    <t>F3359-TACAGCAGTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACAGCAGTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H12</t>
   </si>
   <si>
-    <t>F3360-GTGTGTACCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTGTGTACCTTCGTCGGCAGCGTC</t>
+    <t>F3360-ACACACTGAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACACACTGATTCGTCGGCAGCGTC</t>
   </si>
 </sst>
 </file>
